--- a/DOCS/Repartitions des données.xlsx
+++ b/DOCS/Repartitions des données.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Répartition Générale" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="243">
   <si>
     <t>Entités</t>
   </si>
@@ -778,9 +778,6 @@
     <t>reparation de la fuite</t>
   </si>
   <si>
-    <t>il sera necessaire de refaire me bas du mur en dessous de l evier</t>
-  </si>
-  <si>
     <t>changer l'ampoule</t>
   </si>
   <si>
@@ -788,6 +785,15 @@
   </si>
   <si>
     <t>je n ai pas les materiaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter le type de contrat </t>
+  </si>
+  <si>
+    <t>et si différent de CDI , date de debut et date de fin</t>
+  </si>
+  <si>
+    <t>il sera necessaire de refaire le bas du mur en dessous de l evier</t>
   </si>
 </sst>
 </file>
@@ -802,7 +808,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,8 +864,22 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -962,8 +982,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1108,26 +1134,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1182,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,9 +1196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,9 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,9 +1214,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,9 +1223,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,9 +1232,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,9 +1241,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,9 +1250,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,9 +1259,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1286,9 +1268,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,9 +1277,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,9 +1286,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,9 +1295,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,9 +1304,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,9 +1313,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,9 +1322,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1370,9 +1331,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,9 +1340,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,9 +1349,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,9 +1358,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,9 +1367,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,9 +1376,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,9 +1385,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,9 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,9 +1403,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,9 +1412,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,9 +1421,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,9 +1430,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,9 +1439,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1526,9 +1448,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,12 +1457,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,12 +1466,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,9 +1475,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,18 +1484,12 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,9 +1499,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,9 +1508,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,9 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1637,9 +1526,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1649,9 +1535,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,9 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1673,9 +1553,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1685,9 +1562,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,9 +1571,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1709,9 +1580,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1721,9 +1589,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,12 +1596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1746,15 +1605,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1785,6 +1635,261 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,9 +1905,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,47 +1914,65 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1860,15 +1980,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1878,40 +1989,49 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,119 +2040,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2056,9 +2065,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>613411</xdr:rowOff>
+      <xdr:rowOff>194311</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="338504" cy="628650"/>
     <xdr:pic>
@@ -2082,7 +2091,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12832080" y="3371851"/>
+          <a:off x="13479780" y="2769871"/>
           <a:ext cx="338504" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2095,9 +2104,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>74295</xdr:colOff>
+      <xdr:colOff>249555</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>377190</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="638175" cy="630345"/>
     <xdr:pic>
@@ -2121,7 +2130,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12753975" y="1672590"/>
+          <a:off x="13348335" y="1931670"/>
           <a:ext cx="638175" cy="630345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2134,9 +2143,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:colOff>102870</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="996251" cy="299085"/>
     <xdr:pic>
@@ -2160,7 +2169,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12691110" y="6825615"/>
+          <a:off x="13201650" y="4547235"/>
           <a:ext cx="996251" cy="299085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2173,15 +2182,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>687705</xdr:colOff>
+      <xdr:colOff>855345</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>903923</xdr:rowOff>
+      <xdr:rowOff>667703</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2204,7 +2213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12824460" y="5006340"/>
+          <a:off x="13411200" y="3672840"/>
           <a:ext cx="542925" cy="484823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2515,76 +2524,76 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="220"/>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="220"/>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="220"/>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="220"/>
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="221"/>
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2595,28 +2604,28 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="223"/>
+      <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2627,28 +2636,28 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="225"/>
+      <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2659,52 +2668,52 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="227"/>
+      <c r="B17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="227"/>
+      <c r="B18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="32" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2715,52 +2724,52 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="230"/>
+      <c r="B22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="230"/>
+      <c r="B23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="231"/>
+      <c r="B24" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="41" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2771,76 +2780,76 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="60" t="s">
+      <c r="A27" s="233"/>
+      <c r="B27" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="47" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60" t="s">
+      <c r="A28" s="233"/>
+      <c r="B28" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="233"/>
+      <c r="B29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="233"/>
+      <c r="B30" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="234"/>
+      <c r="B31" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="50" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2851,28 +2860,28 @@
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
-      <c r="B34" s="72" t="s">
+      <c r="A34" s="204"/>
+      <c r="B34" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="56" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2883,28 +2892,28 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="206"/>
+      <c r="B37" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="62" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2915,52 +2924,52 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="65" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
-      <c r="B40" s="88" t="s">
+      <c r="A40" s="208"/>
+      <c r="B40" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="88" t="s">
+      <c r="A41" s="208"/>
+      <c r="B41" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="91"/>
-      <c r="B42" s="92" t="s">
+      <c r="A42" s="209"/>
+      <c r="B42" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="71" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2971,40 +2980,40 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="98" t="s">
+      <c r="D44" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100" t="s">
+      <c r="A45" s="211"/>
+      <c r="B45" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="102" t="s">
+      <c r="D45" s="77" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="103"/>
-      <c r="B46" s="104" t="s">
+      <c r="A46" s="212"/>
+      <c r="B46" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="105" t="s">
+      <c r="C46" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="D46" s="80" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3015,40 +3024,40 @@
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="83" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112" t="s">
+      <c r="A49" s="214"/>
+      <c r="B49" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="113" t="s">
+      <c r="C49" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="114" t="s">
+      <c r="D49" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="115"/>
-      <c r="B50" s="116" t="s">
+      <c r="A50" s="215"/>
+      <c r="B50" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="117" t="s">
+      <c r="C50" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="118" t="s">
+      <c r="D50" s="89" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3059,40 +3068,40 @@
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="119" t="s">
+      <c r="A52" s="216" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="120"/>
-      <c r="B53" s="121" t="s">
+      <c r="A53" s="217"/>
+      <c r="B53" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="122" t="s">
+      <c r="C53" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="123" t="s">
+      <c r="D53" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="124"/>
-      <c r="B54" s="20" t="s">
+      <c r="A54" s="218"/>
+      <c r="B54" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3103,40 +3112,40 @@
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="128" t="s">
+      <c r="D56" s="95" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
-      <c r="B57" s="130" t="s">
+      <c r="A57" s="189"/>
+      <c r="B57" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="131" t="s">
+      <c r="C57" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="132" t="s">
+      <c r="D57" s="98" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="133"/>
-      <c r="B58" s="130" t="s">
+      <c r="A58" s="190"/>
+      <c r="B58" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="134" t="s">
+      <c r="C58" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="135" t="s">
+      <c r="D58" s="100" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3147,40 +3156,40 @@
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="136" t="s">
+      <c r="A60" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="137" t="s">
+      <c r="B60" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="138" t="s">
+      <c r="C60" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="139" t="s">
+      <c r="D60" s="103" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="140"/>
-      <c r="B61" s="141" t="s">
+      <c r="A61" s="192"/>
+      <c r="B61" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="142" t="s">
+      <c r="C61" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="143" t="s">
+      <c r="D61" s="106" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="144"/>
-      <c r="B62" s="145" t="s">
+      <c r="A62" s="193"/>
+      <c r="B62" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="146" t="s">
+      <c r="C62" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="147" t="s">
+      <c r="D62" s="109" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3191,40 +3200,40 @@
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="148" t="s">
+      <c r="A64" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="149" t="s">
+      <c r="B64" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="151" t="s">
+      <c r="D64" s="112" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="152"/>
-      <c r="B65" s="153" t="s">
+      <c r="A65" s="195"/>
+      <c r="B65" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="154" t="s">
+      <c r="C65" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="155" t="s">
+      <c r="D65" s="115" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="156"/>
-      <c r="B66" s="157" t="s">
+      <c r="A66" s="196"/>
+      <c r="B66" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="158" t="s">
+      <c r="C66" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="159" t="s">
+      <c r="D66" s="118" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3235,40 +3244,40 @@
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="160" t="s">
+      <c r="A68" s="197" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="161" t="s">
+      <c r="B68" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="162" t="s">
+      <c r="C68" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="163" t="s">
+      <c r="D68" s="121" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="164"/>
-      <c r="B69" s="165" t="s">
+      <c r="A69" s="198"/>
+      <c r="B69" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="166" t="s">
+      <c r="C69" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="167" t="s">
+      <c r="D69" s="124" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="168"/>
-      <c r="B70" s="169" t="s">
+      <c r="A70" s="199"/>
+      <c r="B70" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="170" t="s">
+      <c r="C70" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="171" t="s">
+      <c r="D70" s="127" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3279,103 +3288,93 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="172" t="s">
+      <c r="A72" s="200" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="173" t="s">
+      <c r="B72" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="174" t="s">
+      <c r="C72" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="175" t="s">
+      <c r="D72" s="130" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="176"/>
-      <c r="B73" s="177" t="s">
+      <c r="A73" s="201"/>
+      <c r="B73" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="178" t="s">
+      <c r="C73" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="179" t="s">
+      <c r="D73" s="133" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="176"/>
-      <c r="B74" s="177" t="s">
+      <c r="A74" s="201"/>
+      <c r="B74" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="178" t="s">
+      <c r="C74" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="179" t="s">
+      <c r="D74" s="133" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="176"/>
-      <c r="B75" s="177" t="s">
+      <c r="A75" s="201"/>
+      <c r="B75" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="178" t="s">
+      <c r="C75" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="179" t="s">
+      <c r="D75" s="133" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="176"/>
-      <c r="B76" s="177" t="s">
+      <c r="A76" s="201"/>
+      <c r="B76" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="178" t="s">
+      <c r="C76" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="179" t="s">
+      <c r="D76" s="133" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="176"/>
-      <c r="B77" s="177" t="s">
+      <c r="A77" s="201"/>
+      <c r="B77" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="178" t="s">
+      <c r="C77" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="179" t="s">
+      <c r="D77" s="133" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="180"/>
-      <c r="B78" s="181" t="s">
+      <c r="A78" s="202"/>
+      <c r="B78" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="182" t="s">
+      <c r="C78" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="D78" s="183" t="s">
+      <c r="D78" s="136" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A11"/>
@@ -3383,6 +3382,16 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A72:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3392,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,61 +3417,61 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:15" s="192" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="189" t="s">
+    <row r="6" spans="2:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="254" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="191"/>
-      <c r="F6" s="279" t="s">
+      <c r="C6" s="255"/>
+      <c r="D6" s="256"/>
+      <c r="F6" s="257" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="281"/>
-      <c r="K6" s="282" t="s">
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="259"/>
+      <c r="K6" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="283"/>
-      <c r="M6" s="283"/>
-      <c r="N6" s="283"/>
-      <c r="O6" s="284"/>
-    </row>
-    <row r="7" spans="2:15" s="192" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="193" t="s">
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="262"/>
+    </row>
+    <row r="7" spans="2:15" s="140" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="195" t="s">
+      <c r="D7" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="196" t="s">
+      <c r="F7" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="196" t="s">
+      <c r="G7" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="197" t="s">
+      <c r="H7" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="198" t="s">
+      <c r="I7" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="199" t="s">
+      <c r="K7" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="199" t="s">
+      <c r="L7" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="200" t="s">
+      <c r="M7" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="200" t="s">
+      <c r="N7" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="201" t="s">
+      <c r="O7" s="149" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3473,7 +3482,7 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="188" t="s">
+      <c r="D8" s="139" t="s">
         <v>154</v>
       </c>
       <c r="F8" s="2">
@@ -3485,7 +3494,7 @@
       <c r="H8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="188" t="s">
+      <c r="I8" s="139" t="s">
         <v>158</v>
       </c>
       <c r="K8" s="2">
@@ -3497,10 +3506,10 @@
       <c r="M8" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="188" t="s">
+      <c r="N8" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="188"/>
+      <c r="O8" s="139"/>
     </row>
     <row r="9" spans="2:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
@@ -3509,19 +3518,19 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="188" t="s">
+      <c r="D9" s="139" t="s">
         <v>155</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="186">
+      <c r="G9" s="137">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="188" t="s">
+      <c r="I9" s="139" t="s">
         <v>160</v>
       </c>
       <c r="K9" s="2">
@@ -3533,10 +3542,10 @@
       <c r="M9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="188" t="s">
+      <c r="N9" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="188"/>
+      <c r="O9" s="139"/>
     </row>
     <row r="10" spans="2:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
@@ -3545,19 +3554,19 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="188" t="s">
+      <c r="D10" s="139" t="s">
         <v>156</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="186">
+      <c r="G10" s="137">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="188" t="s">
+      <c r="I10" s="139" t="s">
         <v>162</v>
       </c>
       <c r="K10" s="2">
@@ -3569,10 +3578,10 @@
       <c r="M10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="188" t="s">
+      <c r="N10" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="188"/>
+      <c r="O10" s="139"/>
     </row>
     <row r="11" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="K11" s="2">
@@ -3584,53 +3593,53 @@
       <c r="M11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="188" t="s">
+      <c r="N11" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="O11" s="188"/>
+      <c r="O11" s="139"/>
     </row>
     <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="249" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="G16" s="275" t="s">
+      <c r="D16" s="250"/>
+      <c r="G16" s="251" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="276"/>
-      <c r="I16" s="277"/>
-    </row>
-    <row r="17" spans="1:14" s="192" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="252"/>
+      <c r="I16" s="253"/>
+    </row>
+    <row r="17" spans="1:14" s="140" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
-      <c r="C17" s="211" t="s">
+      <c r="C17" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="212" t="s">
+      <c r="D17" s="152" t="s">
         <v>65</v>
       </c>
       <c r="E17"/>
-      <c r="G17" s="278" t="s">
+      <c r="G17" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="214" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="213" t="s">
+      <c r="I17" s="153" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="186">
+      <c r="C18" s="137">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="186">
+      <c r="G18" s="137">
         <v>1</v>
       </c>
-      <c r="H18" s="186">
+      <c r="H18" s="137">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3638,157 +3647,157 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="186">
+      <c r="C19" s="137">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="186">
+      <c r="G19" s="137">
+        <v>2</v>
+      </c>
+      <c r="H19" s="137">
         <v>1</v>
-      </c>
-      <c r="H19" s="186">
-        <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G20" s="186">
+      <c r="G20" s="137">
+        <v>3</v>
+      </c>
+      <c r="H20" s="137">
         <v>1</v>
-      </c>
-      <c r="H20" s="186">
-        <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G21" s="186">
+      <c r="G21" s="137">
+        <v>4</v>
+      </c>
+      <c r="H21" s="137">
         <v>1</v>
-      </c>
-      <c r="H21" s="186">
-        <v>4</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="186">
+      <c r="G22" s="137">
+        <v>5</v>
+      </c>
+      <c r="H22" s="137">
         <v>2</v>
-      </c>
-      <c r="H22" s="186">
-        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="186">
+      <c r="G23" s="137">
+        <v>6</v>
+      </c>
+      <c r="H23" s="137">
         <v>2</v>
-      </c>
-      <c r="H23" s="186">
-        <v>6</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G24" s="186">
+      <c r="G24" s="137">
+        <v>7</v>
+      </c>
+      <c r="H24" s="137">
         <v>2</v>
-      </c>
-      <c r="H24" s="186">
-        <v>7</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="186">
+      <c r="G25" s="137">
+        <v>8</v>
+      </c>
+      <c r="H25" s="137">
         <v>2</v>
-      </c>
-      <c r="H25" s="186">
-        <v>8</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G26" s="186">
+      <c r="G26" s="137">
+        <v>9</v>
+      </c>
+      <c r="H26" s="137">
         <v>2</v>
-      </c>
-      <c r="H26" s="186">
-        <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="186">
+      <c r="G27" s="137">
+        <v>10</v>
+      </c>
+      <c r="H27" s="137">
         <v>2</v>
-      </c>
-      <c r="H27" s="186">
-        <v>10</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E28" s="187"/>
+      <c r="E28" s="138"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="222" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
-      <c r="G32" s="204" t="s">
+      <c r="C32" s="235"/>
+      <c r="D32" s="236"/>
+      <c r="G32" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="205"/>
-      <c r="I32" s="206"/>
-      <c r="L32" s="208" t="s">
+      <c r="H32" s="238"/>
+      <c r="I32" s="239"/>
+      <c r="L32" s="240" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="209"/>
-      <c r="N32" s="210"/>
-    </row>
-    <row r="33" spans="2:14" s="192" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="215" t="s">
+      <c r="M32" s="241"/>
+      <c r="N32" s="242"/>
+    </row>
+    <row r="33" spans="2:14" s="140" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="216" t="s">
+      <c r="C33" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="217" t="s">
+      <c r="D33" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="218" t="s">
+      <c r="G33" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="219" t="s">
+      <c r="H33" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="220" t="s">
+      <c r="I33" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="221" t="s">
+      <c r="L33" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="222" t="s">
+      <c r="M33" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="N33" s="223" t="s">
+      <c r="N33" s="163" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3808,7 +3817,7 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="207" t="s">
+      <c r="I34" s="150" t="s">
         <v>174</v>
       </c>
       <c r="L34" s="2">
@@ -3837,7 +3846,7 @@
       <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="I35" s="207" t="s">
+      <c r="I35" s="150" t="s">
         <v>175</v>
       </c>
       <c r="L35" s="2">
@@ -3851,7 +3860,7 @@
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="186">
+      <c r="B36" s="137">
         <v>3</v>
       </c>
       <c r="C36" s="2">
@@ -3866,7 +3875,7 @@
       <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="207" t="s">
+      <c r="I36" s="150" t="s">
         <v>176</v>
       </c>
       <c r="L36" s="2">
@@ -3889,7 +3898,7 @@
       <c r="H37" s="2">
         <v>4</v>
       </c>
-      <c r="I37" s="207" t="s">
+      <c r="I37" s="150" t="s">
         <v>177</v>
       </c>
       <c r="L37" s="2">
@@ -3913,7 +3922,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="192" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L39" s="2">
         <v>6</v>
       </c>
@@ -3937,42 +3946,42 @@
     </row>
     <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="263" t="s">
+      <c r="B43" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="264"/>
-      <c r="D43" s="264"/>
-      <c r="E43" s="265"/>
-      <c r="G43" s="266" t="s">
+      <c r="C43" s="244"/>
+      <c r="D43" s="244"/>
+      <c r="E43" s="245"/>
+      <c r="G43" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="267"/>
-      <c r="I43" s="267"/>
-      <c r="J43" s="268"/>
-    </row>
-    <row r="44" spans="2:14" s="192" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="269" t="s">
+      <c r="H43" s="247"/>
+      <c r="I43" s="247"/>
+      <c r="J43" s="248"/>
+    </row>
+    <row r="44" spans="2:14" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="269" t="s">
+      <c r="C44" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="270" t="s">
+      <c r="D44" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="271" t="s">
+      <c r="E44" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="272" t="s">
+      <c r="G44" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="272" t="s">
+      <c r="H44" s="184" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="273" t="s">
+      <c r="I44" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="J44" s="274" t="s">
+      <c r="J44" s="186" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3980,7 +3989,7 @@
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="139" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="2">
@@ -3989,18 +3998,18 @@
       <c r="G45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="188" t="s">
+      <c r="I45" s="139" t="s">
         <v>190</v>
       </c>
       <c r="J45" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:14" s="192" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" s="140" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>2</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="139" t="s">
         <v>186</v>
       </c>
       <c r="E46" s="2">
@@ -4009,7 +4018,7 @@
       <c r="G46" s="2">
         <v>2</v>
       </c>
-      <c r="I46" s="188" t="s">
+      <c r="I46" s="139" t="s">
         <v>191</v>
       </c>
       <c r="J46" s="2">
@@ -4020,7 +4029,7 @@
       <c r="B47" s="2">
         <v>3</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="139" t="s">
         <v>187</v>
       </c>
       <c r="E47" s="2">
@@ -4029,7 +4038,7 @@
       <c r="G47" s="2">
         <v>3</v>
       </c>
-      <c r="I47" s="188" t="s">
+      <c r="I47" s="139" t="s">
         <v>192</v>
       </c>
       <c r="J47" s="2">
@@ -4040,7 +4049,7 @@
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="188" t="s">
+      <c r="D48" s="139" t="s">
         <v>188</v>
       </c>
       <c r="E48" s="2">
@@ -4049,7 +4058,7 @@
       <c r="G48" s="2">
         <v>4</v>
       </c>
-      <c r="I48" s="188" t="s">
+      <c r="I48" s="139" t="s">
         <v>193</v>
       </c>
       <c r="J48" s="2">
@@ -4060,10 +4069,10 @@
       <c r="B49" s="2">
         <v>5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>1</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="139" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="2">
@@ -4072,10 +4081,10 @@
       <c r="G49" s="2">
         <v>5</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="188" t="s">
+      <c r="I49" s="139" t="s">
         <v>194</v>
       </c>
       <c r="J49" s="2">
@@ -4089,16 +4098,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="K6:O6"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="K6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4111,7 +4120,7 @@
   <dimension ref="B3:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H5"/>
+      <selection activeCell="E16" sqref="E16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,46 +4141,46 @@
   <sheetData>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="254" t="s">
+      <c r="B4" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="256"/>
-      <c r="L4" s="15" t="s">
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="270"/>
+      <c r="L4" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="203"/>
-    </row>
-    <row r="5" spans="2:14" s="192" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="242" t="s">
+      <c r="M4" s="236"/>
+    </row>
+    <row r="5" spans="2:14" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="243" t="s">
+      <c r="D5" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="243" t="s">
+      <c r="E5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="243" t="s">
+      <c r="F5" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="244" t="s">
+      <c r="G5" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="244" t="s">
+      <c r="H5" s="179" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="215" t="s">
+      <c r="L5" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="217" t="s">
+      <c r="M5" s="157" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4185,7 +4194,7 @@
       <c r="D6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="164">
         <v>240046261</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4194,10 +4203,10 @@
       <c r="G6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="186">
+      <c r="H6" s="137">
         <v>1</v>
       </c>
-      <c r="L6" s="186">
+      <c r="L6" s="137">
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -4214,7 +4223,7 @@
       <c r="D7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="224">
+      <c r="E7" s="164">
         <v>614398480</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4223,10 +4232,10 @@
       <c r="G7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="186">
+      <c r="H7" s="137">
         <v>2</v>
       </c>
-      <c r="L7" s="186">
+      <c r="L7" s="137">
         <v>2</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -4243,7 +4252,7 @@
       <c r="D8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="224">
+      <c r="E8" s="164">
         <v>718251232</v>
       </c>
       <c r="F8" t="s">
@@ -4252,10 +4261,10 @@
       <c r="G8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="186">
+      <c r="H8" s="137">
         <v>2</v>
       </c>
-      <c r="L8" s="186">
+      <c r="L8" s="137">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -4272,7 +4281,7 @@
       <c r="D9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="224">
+      <c r="E9" s="164">
         <v>718251232</v>
       </c>
       <c r="F9" t="s">
@@ -4281,10 +4290,10 @@
       <c r="G9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="186">
+      <c r="H9" s="137">
         <v>4</v>
       </c>
-      <c r="L9" s="186">
+      <c r="L9" s="137">
         <v>4</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -4301,7 +4310,7 @@
       <c r="D10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="224">
+      <c r="E10" s="164">
         <v>632125874</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4310,7 +4319,7 @@
       <c r="G10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="186">
+      <c r="H10" s="137">
         <v>3</v>
       </c>
     </row>
@@ -4324,7 +4333,7 @@
       <c r="D11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="224">
+      <c r="E11" s="164">
         <v>328243916</v>
       </c>
       <c r="F11" t="s">
@@ -4333,7 +4342,7 @@
       <c r="G11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="186">
+      <c r="H11" s="137">
         <v>3</v>
       </c>
     </row>
@@ -4347,7 +4356,7 @@
       <c r="D12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="224">
+      <c r="E12" s="164">
         <v>718253096</v>
       </c>
       <c r="F12" t="s">
@@ -4356,7 +4365,7 @@
       <c r="G12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="186">
+      <c r="H12" s="137">
         <v>3</v>
       </c>
     </row>
@@ -4381,154 +4390,154 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="225" t="s">
+      <c r="B16" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="226"/>
+      <c r="C16" s="264"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="245" t="s">
+      <c r="E16" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="K16" s="230" t="s">
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="285"/>
+      <c r="K16" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="231"/>
-      <c r="M16" s="231"/>
-      <c r="N16" s="232"/>
-    </row>
-    <row r="17" spans="2:14" s="192" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="234" t="s">
+      <c r="L16" s="266"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="267"/>
+    </row>
+    <row r="17" spans="2:14" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="235" t="s">
+      <c r="C17" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="188"/>
-      <c r="E17" s="236" t="s">
+      <c r="D17" s="139"/>
+      <c r="E17" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="237" t="s">
+      <c r="G17" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="238" t="s">
+      <c r="H17" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="238" t="s">
+      <c r="I17" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="239" t="s">
+      <c r="K17" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="240" t="s">
+      <c r="L17" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="240" t="s">
+      <c r="M17" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="241" t="s">
+      <c r="N17" s="176" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="186">
-        <v>1</v>
-      </c>
-      <c r="C18" s="227">
+      <c r="B18" s="137">
+        <v>2</v>
+      </c>
+      <c r="C18" s="165">
         <v>123456</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="229">
+        <v>5</v>
+      </c>
+      <c r="F18" s="167">
         <v>43991</v>
       </c>
-      <c r="G18" s="229">
+      <c r="G18" s="167">
         <v>44174</v>
       </c>
       <c r="H18" s="2">
         <v>1654321</v>
       </c>
-      <c r="I18" s="186">
+      <c r="I18" s="137">
         <v>1</v>
       </c>
-      <c r="K18" s="186">
+      <c r="K18" s="137">
         <v>1</v>
       </c>
-      <c r="L18" s="227">
+      <c r="L18" s="165">
         <v>12546</v>
       </c>
-      <c r="M18" s="233">
+      <c r="M18" s="168">
         <v>43991</v>
       </c>
-      <c r="N18" s="229">
+      <c r="N18" s="167">
         <v>44174</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="186">
-        <v>2</v>
-      </c>
-      <c r="C19" s="227">
+      <c r="B19" s="137">
+        <v>3</v>
+      </c>
+      <c r="C19" s="165">
         <v>789456</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="229">
+        <v>6</v>
+      </c>
+      <c r="F19" s="167">
         <v>44248</v>
       </c>
-      <c r="G19" s="229">
+      <c r="G19" s="167">
         <v>44429</v>
       </c>
       <c r="H19" s="2">
         <v>2234567</v>
       </c>
-      <c r="I19" s="186">
+      <c r="I19" s="137">
         <v>2</v>
       </c>
-      <c r="K19" s="186">
+      <c r="K19" s="137">
         <v>2</v>
       </c>
-      <c r="L19" s="227">
+      <c r="L19" s="165">
         <v>8965</v>
       </c>
-      <c r="M19" s="229">
+      <c r="M19" s="167">
         <v>44248</v>
       </c>
-      <c r="N19" s="229">
+      <c r="N19" s="167">
         <v>44429</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="186">
-        <v>3</v>
+      <c r="B20" s="137">
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <v>321564</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="229">
+        <v>7</v>
+      </c>
+      <c r="F20" s="167">
         <v>44251</v>
       </c>
-      <c r="G20" s="229">
+      <c r="G20" s="167">
         <v>44429</v>
       </c>
       <c r="H20" s="2">
         <v>3546123</v>
       </c>
-      <c r="I20" s="186">
+      <c r="I20" s="137">
         <v>2</v>
       </c>
     </row>
@@ -4557,6 +4566,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4564,7 +4576,9 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -4574,16 +4588,16 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="228"/>
+      <c r="G28" s="166"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G29" s="228"/>
+      <c r="G29" s="166"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G30" s="228"/>
+      <c r="G30" s="166"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G31" s="229"/>
+      <c r="G31" s="167"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
@@ -4610,10 +4624,10 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="186"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="229"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
@@ -4633,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:K10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4643,69 +4657,69 @@
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="259"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="279"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:12" s="192" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="248" t="s">
+    <row r="2" spans="2:12" s="140" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="281" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="250" t="s">
+      <c r="D2" s="281" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="249" t="s">
+      <c r="E2" s="282" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="282" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="249" t="s">
+      <c r="H2" s="282" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="250" t="s">
+      <c r="I2" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="186">
+      <c r="B3" s="137">
         <v>1</v>
       </c>
-      <c r="C3" s="186">
-        <v>1</v>
-      </c>
-      <c r="D3" s="186">
+      <c r="C3" s="137">
+        <v>3</v>
+      </c>
+      <c r="D3" s="137">
         <v>9</v>
       </c>
-      <c r="E3" s="229">
+      <c r="E3" s="167">
         <v>44057</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4725,16 +4739,16 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="186">
+      <c r="B4" s="137">
         <v>2</v>
       </c>
-      <c r="C4" s="186">
+      <c r="C4" s="137">
+        <v>3</v>
+      </c>
+      <c r="D4" s="137">
         <v>1</v>
       </c>
-      <c r="D4" s="186">
-        <v>1</v>
-      </c>
-      <c r="E4" s="229">
+      <c r="E4" s="167">
         <v>44269</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -4754,16 +4768,16 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="186">
+      <c r="B5" s="137">
         <v>3</v>
       </c>
-      <c r="C5" s="186">
+      <c r="C5" s="137">
         <v>2</v>
       </c>
-      <c r="D5" s="186">
+      <c r="D5" s="137">
         <v>5</v>
       </c>
-      <c r="E5" s="229">
+      <c r="E5" s="167">
         <v>44356</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4782,13 +4796,13 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="229"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -4800,81 +4814,81 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="260" t="s">
+      <c r="B9" s="271" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="261"/>
-      <c r="K9" s="262"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="272"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="272"/>
+      <c r="J9" s="272"/>
+      <c r="K9" s="273"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" s="192" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="251" t="s">
+    <row r="10" spans="2:12" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="274" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="253" t="s">
+      <c r="C10" s="275" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="253" t="s">
+      <c r="D10" s="275" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="253" t="s">
+      <c r="E10" s="275" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="252" t="s">
+      <c r="F10" s="276" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="252" t="s">
+      <c r="G10" s="276" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="252" t="s">
+      <c r="H10" s="276" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="252" t="s">
+      <c r="I10" s="276" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="252" t="s">
+      <c r="J10" s="276" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="253" t="s">
+      <c r="K10" s="275" t="s">
         <v>140</v>
       </c>
-      <c r="L10" s="188"/>
+      <c r="L10" s="139"/>
     </row>
     <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="186">
+      <c r="C11" s="137">
         <v>1</v>
       </c>
-      <c r="D11" s="186">
+      <c r="D11" s="137">
         <v>3</v>
       </c>
-      <c r="E11" s="186">
+      <c r="E11" s="137">
         <v>3</v>
       </c>
-      <c r="F11" s="229">
+      <c r="F11" s="167">
         <v>44060</v>
       </c>
-      <c r="G11" s="247">
+      <c r="G11" s="180">
         <v>44060.395833333336</v>
       </c>
-      <c r="H11" s="247">
+      <c r="H11" s="180">
         <v>44062.583333333336</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>236</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="188" t="s">
-        <v>237</v>
+      <c r="K11" s="139" t="s">
+        <v>242</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -4882,32 +4896,32 @@
       <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="186">
+      <c r="C12" s="137">
         <v>2</v>
       </c>
-      <c r="D12" s="186">
+      <c r="D12" s="137">
         <v>2</v>
       </c>
-      <c r="E12" s="186">
+      <c r="E12" s="137">
         <v>3</v>
       </c>
-      <c r="F12" s="229">
+      <c r="F12" s="167">
         <v>44269</v>
       </c>
-      <c r="G12" s="247">
+      <c r="G12" s="180">
         <v>44061.395833333336</v>
       </c>
-      <c r="H12" s="247">
+      <c r="H12" s="180">
         <v>44061.395833333336</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="139" t="s">
         <v>239</v>
-      </c>
-      <c r="K12" s="188" t="s">
-        <v>240</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -4930,5 +4944,6 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOCS/Repartitions des données.xlsx
+++ b/DOCS/Repartitions des données.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GIT DWWM 20\Antoine_Stage\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-95-12\Host\Stage\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Répartition Générale" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="249">
   <si>
     <t>Entités</t>
   </si>
@@ -787,13 +787,31 @@
     <t>je n ai pas les materiaux</t>
   </si>
   <si>
-    <t xml:space="preserve">ajouter le type de contrat </t>
-  </si>
-  <si>
-    <t>et si différent de CDI , date de debut et date de fin</t>
-  </si>
-  <si>
     <t>il sera necessaire de refaire le bas du mur en dessous de l evier</t>
+  </si>
+  <si>
+    <t>type de contrat</t>
+  </si>
+  <si>
+    <t>date de debut</t>
+  </si>
+  <si>
+    <t>date de fin</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>typeContrat</t>
+  </si>
+  <si>
+    <t>dateDebutContrat</t>
+  </si>
+  <si>
+    <t>dateFinContrat</t>
   </si>
 </sst>
 </file>
@@ -879,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,12 +913,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +1001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1184,11 +1196,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,6 +1288,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,15 +1369,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,6 +1405,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,6 +1477,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,24 +1504,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,6 +1528,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,7 +1594,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,37 +1612,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1608,6 +1628,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1617,48 +1688,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1668,6 +1697,51 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1677,57 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1737,17 +1760,125 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1776,119 +1907,56 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1896,6 +1964,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1905,13 +1982,13 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,70 +2000,13 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1998,23 +2018,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2025,22 +2045,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2489,21 +2524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,14 +2552,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="219" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="189" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2537,8 +2572,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="220"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="190"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -2549,8 +2584,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="220"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="190"/>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
@@ -2561,8 +2596,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="220"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="190"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2573,8 +2608,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="220"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="190"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2585,8 +2620,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="221"/>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="191"/>
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2597,14 +2632,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="222" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="192" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2617,8 +2652,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="223"/>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="193"/>
       <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
@@ -2629,769 +2664,808 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="224" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="225"/>
-      <c r="B14" s="21" t="s">
+      <c r="F13" s="278"/>
+      <c r="G13" s="278"/>
+      <c r="H13" s="278"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="280"/>
+      <c r="B14" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="281" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="282" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="226" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="280"/>
+      <c r="B15" s="279" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="279" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="280"/>
+      <c r="B16" s="279" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="279" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="283" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="206"/>
+      <c r="B17" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="284" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D19" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="227"/>
-      <c r="B17" s="27" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="195"/>
+      <c r="B20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D20" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="227"/>
-      <c r="B18" s="27" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="195"/>
+      <c r="B21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="228"/>
-      <c r="B19" s="30" t="s">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="196"/>
+      <c r="B22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D22" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="229" t="s">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D24" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="230"/>
-      <c r="B22" s="36" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="198"/>
+      <c r="B25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D25" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="230"/>
-      <c r="B23" s="36" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="198"/>
+      <c r="B26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C26" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D26" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="231"/>
-      <c r="B24" s="39" t="s">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="199"/>
+      <c r="B27" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D27" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="232" t="s">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B29" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D29" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="233"/>
-      <c r="B27" s="45" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="201"/>
+      <c r="B30" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C30" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D30" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="233"/>
-      <c r="B28" s="45" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="201"/>
+      <c r="B31" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C31" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D31" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="233"/>
-      <c r="B29" s="45" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="201"/>
+      <c r="B32" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C32" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D32" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="233"/>
-      <c r="B30" s="45" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="201"/>
+      <c r="B33" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C33" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D33" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="234"/>
-      <c r="B31" s="48" t="s">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="202"/>
+      <c r="B34" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C34" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D34" s="44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="203" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="204"/>
-      <c r="B34" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="205" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="59" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="203" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="206"/>
-      <c r="B37" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="62" t="s">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="204"/>
+      <c r="B37" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="207" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="205" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="206"/>
+      <c r="B40" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B42" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C42" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D42" s="59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="208"/>
-      <c r="B40" s="66" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="208"/>
+      <c r="B43" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C43" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D43" s="62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="208"/>
-      <c r="B41" s="66" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="208"/>
+      <c r="B44" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C44" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D44" s="62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="209"/>
-      <c r="B42" s="69" t="s">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="209"/>
+      <c r="B45" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C45" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D45" s="65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="210" t="s">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B47" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="C47" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="74" t="s">
+      <c r="D47" s="68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="211"/>
-      <c r="B45" s="75" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="211"/>
+      <c r="B48" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C48" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D48" s="71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="212"/>
-      <c r="B46" s="78" t="s">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="212"/>
+      <c r="B49" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C49" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="80" t="s">
+      <c r="D49" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="213" t="s">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B51" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C51" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="83" t="s">
+      <c r="D51" s="77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="214"/>
-      <c r="B49" s="84" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="214"/>
+      <c r="B52" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C52" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="86" t="s">
+      <c r="D52" s="80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="215"/>
-      <c r="B50" s="87" t="s">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="215"/>
+      <c r="B53" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="88" t="s">
+      <c r="C53" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="89" t="s">
+      <c r="D53" s="83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="216" t="s">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B55" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="217"/>
-      <c r="B53" s="90" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="187"/>
+      <c r="B56" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C56" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="D56" s="86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="218"/>
-      <c r="B54" s="15" t="s">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="188"/>
+      <c r="B57" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="188" t="s">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="216" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="93" t="s">
+      <c r="B59" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="94" t="s">
+      <c r="C59" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="D59" s="89" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="189"/>
-      <c r="B57" s="96" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="217"/>
+      <c r="B60" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="97" t="s">
+      <c r="C60" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="98" t="s">
+      <c r="D60" s="92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="190"/>
-      <c r="B58" s="96" t="s">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="218"/>
+      <c r="B61" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="99" t="s">
+      <c r="C61" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="100" t="s">
+      <c r="D61" s="94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="191" t="s">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="219" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="101" t="s">
+      <c r="B63" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="102" t="s">
+      <c r="C63" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="103" t="s">
+      <c r="D63" s="97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="192"/>
-      <c r="B61" s="104" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="220"/>
+      <c r="B64" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="105" t="s">
+      <c r="C64" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="106" t="s">
+      <c r="D64" s="100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="193"/>
-      <c r="B62" s="107" t="s">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="221"/>
+      <c r="B65" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="108" t="s">
+      <c r="C65" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="109" t="s">
+      <c r="D65" s="103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="194" t="s">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="222" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="110" t="s">
+      <c r="B67" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="111" t="s">
+      <c r="C67" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="112" t="s">
+      <c r="D67" s="106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="195"/>
-      <c r="B65" s="113" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="223"/>
+      <c r="B68" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="114" t="s">
+      <c r="C68" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="115" t="s">
+      <c r="D68" s="109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="196"/>
-      <c r="B66" s="116" t="s">
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="224"/>
+      <c r="B69" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="117" t="s">
+      <c r="C69" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="118" t="s">
+      <c r="D69" s="112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="197" t="s">
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="119" t="s">
+      <c r="B71" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="120" t="s">
+      <c r="C71" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="121" t="s">
+      <c r="D71" s="115" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="198"/>
-      <c r="B69" s="122" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="226"/>
+      <c r="B72" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="123" t="s">
+      <c r="C72" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="124" t="s">
+      <c r="D72" s="118" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="199"/>
-      <c r="B70" s="125" t="s">
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="227"/>
+      <c r="B73" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="126" t="s">
+      <c r="C73" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="127" t="s">
+      <c r="D73" s="121" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="200" t="s">
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="228" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="128" t="s">
+      <c r="B75" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="129" t="s">
+      <c r="C75" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="130" t="s">
+      <c r="D75" s="124" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="201"/>
-      <c r="B73" s="131" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="229"/>
+      <c r="B76" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="132" t="s">
+      <c r="C76" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="133" t="s">
+      <c r="D76" s="127" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="201"/>
-      <c r="B74" s="131" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="229"/>
+      <c r="B77" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="132" t="s">
+      <c r="C77" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="133" t="s">
+      <c r="D77" s="127" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="201"/>
-      <c r="B75" s="131" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="229"/>
+      <c r="B78" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="132" t="s">
+      <c r="C78" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="D75" s="133" t="s">
+      <c r="D78" s="127" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="201"/>
-      <c r="B76" s="131" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="229"/>
+      <c r="B79" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="132" t="s">
+      <c r="C79" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="133" t="s">
+      <c r="D79" s="127" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="201"/>
-      <c r="B77" s="131" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="229"/>
+      <c r="B80" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="132" t="s">
+      <c r="C80" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="133" t="s">
+      <c r="D80" s="127" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="202"/>
-      <c r="B78" s="134" t="s">
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="230"/>
+      <c r="B81" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="135" t="s">
+      <c r="C81" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="D78" s="136" t="s">
+      <c r="D81" s="130" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3405,84 +3479,84 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" customWidth="1"/>
-    <col min="11" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:15" s="140" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="254" t="s">
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:15" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="256"/>
-      <c r="F6" s="257" t="s">
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
+      <c r="F6" s="239" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="259"/>
-      <c r="K6" s="260" t="s">
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="241"/>
+      <c r="K6" s="242" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="262"/>
-    </row>
-    <row r="7" spans="2:15" s="140" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="141" t="s">
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+      <c r="N6" s="243"/>
+      <c r="O6" s="244"/>
+    </row>
+    <row r="7" spans="2:15" s="134" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="145" t="s">
+      <c r="H7" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="146" t="s">
+      <c r="I7" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="147" t="s">
+      <c r="K7" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="147" t="s">
+      <c r="L7" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="148" t="s">
+      <c r="M7" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="148" t="s">
+      <c r="N7" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="149" t="s">
+      <c r="O7" s="143" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="133" t="s">
         <v>154</v>
       </c>
       <c r="F8" s="2">
@@ -3494,7 +3568,7 @@
       <c r="H8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="133" t="s">
         <v>158</v>
       </c>
       <c r="K8" s="2">
@@ -3506,31 +3580,31 @@
       <c r="M8" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="139" t="s">
+      <c r="N8" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="139"/>
-    </row>
-    <row r="9" spans="2:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="O8" s="133"/>
+    </row>
+    <row r="9" spans="2:15" ht="105" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="133" t="s">
         <v>155</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="131">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="139" t="s">
+      <c r="I9" s="133" t="s">
         <v>160</v>
       </c>
       <c r="K9" s="2">
@@ -3542,31 +3616,31 @@
       <c r="M9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="139" t="s">
+      <c r="N9" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="139"/>
-    </row>
-    <row r="10" spans="2:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="O9" s="133"/>
+    </row>
+    <row r="10" spans="2:15" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="133" t="s">
         <v>156</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="137">
+      <c r="G10" s="131">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="139" t="s">
+      <c r="I10" s="133" t="s">
         <v>162</v>
       </c>
       <c r="K10" s="2">
@@ -3578,12 +3652,12 @@
       <c r="M10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="139" t="s">
+      <c r="N10" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="O10" s="139"/>
-    </row>
-    <row r="11" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O10" s="133"/>
+    </row>
+    <row r="11" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="K11" s="2">
         <v>4</v>
       </c>
@@ -3593,215 +3667,215 @@
       <c r="M11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N11" s="139" t="s">
+      <c r="N11" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="O11" s="139"/>
-    </row>
-    <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="249" t="s">
+      <c r="O11" s="133"/>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="231" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="250"/>
-      <c r="G16" s="251" t="s">
+      <c r="D16" s="232"/>
+      <c r="G16" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="252"/>
-      <c r="I16" s="253"/>
-    </row>
-    <row r="17" spans="1:14" s="140" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="234"/>
+      <c r="I16" s="235"/>
+    </row>
+    <row r="17" spans="1:14" s="134" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="146" t="s">
         <v>65</v>
       </c>
       <c r="E17"/>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="187" t="s">
+      <c r="H17" s="179" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="153" t="s">
+      <c r="I17" s="147" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="137">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="131">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="137">
+      <c r="G18" s="131">
         <v>1</v>
       </c>
-      <c r="H18" s="137">
+      <c r="H18" s="131">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="137">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="131">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="137">
+      <c r="G19" s="131">
         <v>2</v>
       </c>
-      <c r="H19" s="137">
+      <c r="H19" s="131">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G20" s="137">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="131">
         <v>3</v>
       </c>
-      <c r="H20" s="137">
+      <c r="H20" s="131">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G21" s="137">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="131">
         <v>4</v>
       </c>
-      <c r="H21" s="137">
+      <c r="H21" s="131">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="137">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="131">
         <v>5</v>
       </c>
-      <c r="H22" s="137">
+      <c r="H22" s="131">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="137">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="131">
         <v>6</v>
       </c>
-      <c r="H23" s="137">
+      <c r="H23" s="131">
         <v>2</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G24" s="137">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="131">
         <v>7</v>
       </c>
-      <c r="H24" s="137">
+      <c r="H24" s="131">
         <v>2</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G25" s="137">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="131">
         <v>8</v>
       </c>
-      <c r="H25" s="137">
+      <c r="H25" s="131">
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G26" s="137">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="131">
         <v>9</v>
       </c>
-      <c r="H26" s="137">
+      <c r="H26" s="131">
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="137">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="131">
         <v>10</v>
       </c>
-      <c r="H27" s="137">
+      <c r="H27" s="131">
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E28" s="138"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="222" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E28" s="132"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="235"/>
-      <c r="D32" s="236"/>
-      <c r="G32" s="237" t="s">
+      <c r="C32" s="245"/>
+      <c r="D32" s="246"/>
+      <c r="G32" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="238"/>
-      <c r="I32" s="239"/>
-      <c r="L32" s="240" t="s">
+      <c r="H32" s="248"/>
+      <c r="I32" s="249"/>
+      <c r="L32" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="241"/>
-      <c r="N32" s="242"/>
-    </row>
-    <row r="33" spans="2:14" s="140" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="155" t="s">
+      <c r="M32" s="251"/>
+      <c r="N32" s="252"/>
+    </row>
+    <row r="33" spans="2:14" s="134" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="156" t="s">
+      <c r="C33" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="157" t="s">
+      <c r="D33" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="158" t="s">
+      <c r="G33" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="159" t="s">
+      <c r="H33" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="160" t="s">
+      <c r="I33" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="161" t="s">
+      <c r="L33" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="162" t="s">
+      <c r="M33" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="N33" s="163" t="s">
+      <c r="N33" s="157" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -3817,7 +3891,7 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="150" t="s">
+      <c r="I34" s="144" t="s">
         <v>174</v>
       </c>
       <c r="L34" s="2">
@@ -3830,7 +3904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>2</v>
       </c>
@@ -3846,7 +3920,7 @@
       <c r="H35" s="2">
         <v>2</v>
       </c>
-      <c r="I35" s="150" t="s">
+      <c r="I35" s="144" t="s">
         <v>175</v>
       </c>
       <c r="L35" s="2">
@@ -3859,8 +3933,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="137">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="131">
         <v>3</v>
       </c>
       <c r="C36" s="2">
@@ -3875,7 +3949,7 @@
       <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="150" t="s">
+      <c r="I36" s="144" t="s">
         <v>176</v>
       </c>
       <c r="L36" s="2">
@@ -3888,7 +3962,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3898,7 +3972,7 @@
       <c r="H37" s="2">
         <v>4</v>
       </c>
-      <c r="I37" s="150" t="s">
+      <c r="I37" s="144" t="s">
         <v>177</v>
       </c>
       <c r="L37" s="2">
@@ -3911,7 +3985,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L38" s="2">
         <v>5</v>
       </c>
@@ -3922,7 +3996,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="140" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" s="134" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L39" s="2">
         <v>6</v>
       </c>
@@ -3933,7 +4007,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L40" s="2">
         <v>7</v>
       </c>
@@ -3944,52 +4018,52 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="243" t="s">
+    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="253" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="244"/>
-      <c r="D43" s="244"/>
-      <c r="E43" s="245"/>
-      <c r="G43" s="246" t="s">
+      <c r="C43" s="254"/>
+      <c r="D43" s="254"/>
+      <c r="E43" s="255"/>
+      <c r="G43" s="256" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="247"/>
-      <c r="I43" s="247"/>
-      <c r="J43" s="248"/>
-    </row>
-    <row r="44" spans="2:14" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="181" t="s">
+      <c r="H43" s="257"/>
+      <c r="I43" s="257"/>
+      <c r="J43" s="258"/>
+    </row>
+    <row r="44" spans="2:14" s="134" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="181" t="s">
+      <c r="C44" s="173" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="183" t="s">
+      <c r="E44" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="184" t="s">
+      <c r="G44" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="184" t="s">
+      <c r="H44" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="185" t="s">
+      <c r="I44" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="J44" s="186" t="s">
+      <c r="J44" s="178" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="139" t="s">
+      <c r="D45" s="133" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="2">
@@ -3998,18 +4072,18 @@
       <c r="G45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="139" t="s">
+      <c r="I45" s="133" t="s">
         <v>190</v>
       </c>
       <c r="J45" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:14" s="140" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" s="134" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>2</v>
       </c>
-      <c r="D46" s="139" t="s">
+      <c r="D46" s="133" t="s">
         <v>186</v>
       </c>
       <c r="E46" s="2">
@@ -4018,18 +4092,18 @@
       <c r="G46" s="2">
         <v>2</v>
       </c>
-      <c r="I46" s="139" t="s">
+      <c r="I46" s="133" t="s">
         <v>191</v>
       </c>
       <c r="J46" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>3</v>
       </c>
-      <c r="D47" s="139" t="s">
+      <c r="D47" s="133" t="s">
         <v>187</v>
       </c>
       <c r="E47" s="2">
@@ -4038,18 +4112,18 @@
       <c r="G47" s="2">
         <v>3</v>
       </c>
-      <c r="I47" s="139" t="s">
+      <c r="I47" s="133" t="s">
         <v>192</v>
       </c>
       <c r="J47" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="139" t="s">
+      <c r="D48" s="133" t="s">
         <v>188</v>
       </c>
       <c r="E48" s="2">
@@ -4058,21 +4132,21 @@
       <c r="G48" s="2">
         <v>4</v>
       </c>
-      <c r="I48" s="139" t="s">
+      <c r="I48" s="133" t="s">
         <v>193</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>5</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
-      <c r="D49" s="139" t="s">
+      <c r="D49" s="133" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="2">
@@ -4084,30 +4158,30 @@
       <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="139" t="s">
+      <c r="I49" s="133" t="s">
         <v>194</v>
       </c>
       <c r="J49" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="K6:O6"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4119,72 +4193,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:I17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="268" t="s">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="262" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="270"/>
-      <c r="L4" s="222" t="s">
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="264"/>
+      <c r="L4" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="236"/>
-    </row>
-    <row r="5" spans="2:14" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="177" t="s">
+      <c r="M4" s="246"/>
+    </row>
+    <row r="5" spans="2:14" s="134" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="178" t="s">
+      <c r="D5" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="178" t="s">
+      <c r="E5" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="178" t="s">
+      <c r="F5" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="179" t="s">
+      <c r="H5" s="171" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="155" t="s">
+      <c r="L5" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="157" t="s">
+      <c r="M5" s="151" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -4194,7 +4268,7 @@
       <c r="D6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="164">
+      <c r="E6" s="158">
         <v>240046261</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4203,17 +4277,17 @@
       <c r="G6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="137">
+      <c r="H6" s="131">
         <v>1</v>
       </c>
-      <c r="L6" s="137">
+      <c r="L6" s="131">
         <v>1</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -4223,7 +4297,7 @@
       <c r="D7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="164">
+      <c r="E7" s="158">
         <v>614398480</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4232,17 +4306,17 @@
       <c r="G7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="131">
         <v>2</v>
       </c>
-      <c r="L7" s="137">
+      <c r="L7" s="131">
         <v>2</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -4252,7 +4326,7 @@
       <c r="D8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="164">
+      <c r="E8" s="158">
         <v>718251232</v>
       </c>
       <c r="F8" t="s">
@@ -4261,17 +4335,17 @@
       <c r="G8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="137">
+      <c r="H8" s="131">
         <v>2</v>
       </c>
-      <c r="L8" s="137">
+      <c r="L8" s="131">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -4281,7 +4355,7 @@
       <c r="D9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="164">
+      <c r="E9" s="158">
         <v>718251232</v>
       </c>
       <c r="F9" t="s">
@@ -4290,17 +4364,17 @@
       <c r="G9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="131">
         <v>4</v>
       </c>
-      <c r="L9" s="137">
+      <c r="L9" s="131">
         <v>4</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -4310,7 +4384,7 @@
       <c r="D10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="164">
+      <c r="E10" s="158">
         <v>632125874</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4319,11 +4393,11 @@
       <c r="G10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="137">
+      <c r="H10" s="131">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -4333,7 +4407,7 @@
       <c r="D11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="164">
+      <c r="E11" s="158">
         <v>328243916</v>
       </c>
       <c r="F11" t="s">
@@ -4342,11 +4416,11 @@
       <c r="G11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="137">
+      <c r="H11" s="131">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -4356,7 +4430,7 @@
       <c r="D12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="164">
+      <c r="E12" s="158">
         <v>718253096</v>
       </c>
       <c r="F12" t="s">
@@ -4365,11 +4439,11 @@
       <c r="G12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H12" s="137">
+      <c r="H12" s="131">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4377,229 +4451,249 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="263" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="264"/>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
-      <c r="E16" s="283" t="s">
+      <c r="E16" s="265" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="285"/>
-      <c r="K16" s="265" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="267"/>
+      <c r="K16" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="267"/>
-    </row>
-    <row r="17" spans="2:14" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="169" t="s">
+      <c r="L16" s="260"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="261"/>
+    </row>
+    <row r="17" spans="2:14" s="134" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="133"/>
+      <c r="E17" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="170" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="171" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="172" t="s">
+      <c r="F17" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="172" t="s">
+      <c r="G17" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="173" t="s">
+      <c r="H17" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="173" t="s">
+      <c r="I17" s="165" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="174" t="s">
+      <c r="K17" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="175" t="s">
+      <c r="L17" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="175" t="s">
+      <c r="M17" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="176" t="s">
+      <c r="N17" s="168" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="137">
-        <v>2</v>
-      </c>
-      <c r="C18" s="165">
-        <v>123456</v>
-      </c>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="167">
+      <c r="F18" s="161">
         <v>43991</v>
       </c>
-      <c r="G18" s="167">
+      <c r="G18" s="161">
         <v>44174</v>
       </c>
       <c r="H18" s="2">
         <v>1654321</v>
       </c>
-      <c r="I18" s="137">
+      <c r="I18" s="131">
         <v>1</v>
       </c>
-      <c r="K18" s="137">
+      <c r="K18" s="131">
         <v>1</v>
       </c>
-      <c r="L18" s="165">
+      <c r="L18" s="159">
         <v>12546</v>
       </c>
-      <c r="M18" s="168">
+      <c r="M18" s="162">
         <v>43991</v>
       </c>
-      <c r="N18" s="167">
+      <c r="N18" s="161">
         <v>44174</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="137">
-        <v>3</v>
-      </c>
-      <c r="C19" s="165">
-        <v>789456</v>
-      </c>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="167">
+      <c r="F19" s="161">
         <v>44248</v>
       </c>
-      <c r="G19" s="167">
+      <c r="G19" s="161">
         <v>44429</v>
       </c>
       <c r="H19" s="2">
         <v>2234567</v>
       </c>
-      <c r="I19" s="137">
+      <c r="I19" s="131">
         <v>2</v>
       </c>
-      <c r="K19" s="137">
+      <c r="K19" s="131">
         <v>2</v>
       </c>
-      <c r="L19" s="165">
+      <c r="L19" s="159">
         <v>8965</v>
       </c>
-      <c r="M19" s="167">
+      <c r="M19" s="161">
         <v>44248</v>
       </c>
-      <c r="N19" s="167">
+      <c r="N19" s="161">
         <v>44429</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="137">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>321564</v>
-      </c>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2">
         <v>7</v>
       </c>
-      <c r="F20" s="167">
+      <c r="F20" s="161">
         <v>44251</v>
       </c>
-      <c r="G20" s="167">
+      <c r="G20" s="161">
         <v>44429</v>
       </c>
       <c r="H20" s="2">
         <v>3546123</v>
       </c>
-      <c r="I20" s="137">
+      <c r="I20" s="131">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>240</v>
-      </c>
+      <c r="E24" s="231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="276"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="275"/>
+    </row>
+    <row r="25" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E25" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="277" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>241</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="166"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G29" s="166"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G30" s="166"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G31" s="167"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E26" s="131">
+        <v>2</v>
+      </c>
+      <c r="F26" s="159">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="274" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="161">
+        <v>42869</v>
+      </c>
+      <c r="I26" s="161"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E27" s="131">
+        <v>3</v>
+      </c>
+      <c r="F27" s="159">
+        <v>789456</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" s="161">
+        <v>43813</v>
+      </c>
+      <c r="I27" s="161"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E28" s="131">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>321564</v>
+      </c>
+      <c r="G28" s="160" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="161">
+        <v>44251</v>
+      </c>
+      <c r="I28" s="161">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="160"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="160"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="161"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4607,39 +4701,40 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="137"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="131"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4647,79 +4742,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="277" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="279"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="273"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="2:12" s="140" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="280" t="s">
+    <row r="2" spans="2:12" s="134" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="184" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="281" t="s">
+      <c r="D2" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="282" t="s">
+      <c r="E2" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="282" t="s">
+      <c r="F2" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="282" t="s">
+      <c r="H2" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="281" t="s">
+      <c r="I2" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="137">
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="131">
         <v>1</v>
       </c>
-      <c r="C3" s="137">
+      <c r="C3" s="131">
         <v>3</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="131">
         <v>9</v>
       </c>
-      <c r="E3" s="167">
+      <c r="E3" s="161">
         <v>44057</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4738,17 +4833,17 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="137">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="131">
         <v>2</v>
       </c>
-      <c r="C4" s="137">
+      <c r="C4" s="131">
         <v>3</v>
       </c>
-      <c r="D4" s="137">
+      <c r="D4" s="131">
         <v>1</v>
       </c>
-      <c r="E4" s="167">
+      <c r="E4" s="161">
         <v>44269</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -4767,17 +4862,17 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="137">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="131">
         <v>3</v>
       </c>
-      <c r="C5" s="137">
+      <c r="C5" s="131">
         <v>2</v>
       </c>
-      <c r="D5" s="137">
+      <c r="D5" s="131">
         <v>5</v>
       </c>
-      <c r="E5" s="167">
+      <c r="E5" s="161">
         <v>44356</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4794,124 +4889,124 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="167"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="271" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="268" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="272"/>
-      <c r="D9" s="272"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="272"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="272"/>
-      <c r="J9" s="272"/>
-      <c r="K9" s="273"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="270"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" s="140" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="274" t="s">
+    <row r="10" spans="2:12" s="134" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="275" t="s">
+      <c r="C10" s="181" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="275" t="s">
+      <c r="D10" s="181" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="275" t="s">
+      <c r="E10" s="181" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="276" t="s">
+      <c r="F10" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="276" t="s">
+      <c r="G10" s="182" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="276" t="s">
+      <c r="H10" s="182" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="276" t="s">
+      <c r="I10" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="276" t="s">
+      <c r="J10" s="182" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="275" t="s">
+      <c r="K10" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="L10" s="139"/>
-    </row>
-    <row r="11" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L10" s="133"/>
+    </row>
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="137">
+      <c r="C11" s="131">
         <v>1</v>
       </c>
-      <c r="D11" s="137">
+      <c r="D11" s="131">
         <v>3</v>
       </c>
-      <c r="E11" s="137">
+      <c r="E11" s="131">
         <v>3</v>
       </c>
-      <c r="F11" s="167">
+      <c r="F11" s="161">
         <v>44060</v>
       </c>
-      <c r="G11" s="180">
+      <c r="G11" s="172">
         <v>44060.395833333336</v>
       </c>
-      <c r="H11" s="180">
+      <c r="H11" s="172">
         <v>44062.583333333336</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>236</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="139" t="s">
-        <v>242</v>
+      <c r="K11" s="133" t="s">
+        <v>240</v>
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C12" s="131">
         <v>2</v>
       </c>
-      <c r="D12" s="137">
+      <c r="D12" s="131">
         <v>2</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="131">
         <v>3</v>
       </c>
-      <c r="F12" s="167">
+      <c r="F12" s="161">
         <v>44269</v>
       </c>
-      <c r="G12" s="180">
+      <c r="G12" s="172">
         <v>44061.395833333336</v>
       </c>
-      <c r="H12" s="180">
+      <c r="H12" s="172">
         <v>44061.395833333336</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -4920,12 +5015,12 @@
       <c r="J12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K12" s="139" t="s">
+      <c r="K12" s="133" t="s">
         <v>239</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
